--- a/biology/Médecine/Dominique_Le_Guludec/Dominique_Le_Guludec.xlsx
+++ b/biology/Médecine/Dominique_Le_Guludec/Dominique_Le_Guludec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Le Guludec est cardiologue et professeure de biophysique et médecine nucléaire. 
-Depuis 1994, elle est professeur des universités-praticien hospitalier à l'hôpital Bichat-Claude-Bernard[1]. 
-En novembre 2013, elle est nommée présidente du conseil d'administration de l'Institut de radioprotection et de sûreté nucléaire[1]. 
-En décembre 2017, elle succède à Agnès Buzyn à la tête du collège de la Haute Autorité de santé[2],[3].
+Depuis 1994, elle est professeur des universités-praticien hospitalier à l'hôpital Bichat-Claude-Bernard. 
+En novembre 2013, elle est nommée présidente du conseil d'administration de l'Institut de radioprotection et de sûreté nucléaire. 
+En décembre 2017, elle succède à Agnès Buzyn à la tête du collège de la Haute Autorité de santé,.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (2014).</t>
         </is>
